--- a/dz_1.xlsx
+++ b/dz_1.xlsx
@@ -36,12 +36,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="B11" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>добавить все файлы</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>1. зареєструватися на гіті</t>
   </si>
@@ -127,12 +142,90 @@
   <si>
     <t>git branch (-d | -D) &lt;branchname&gt;</t>
   </si>
+  <si>
+    <t>чтобы конкретные файлы не отслеживались Гитом, их имена надо добавить в файл .gitignore</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ctrl + l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  -  "очистить" экран терминала</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git status -  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>просмотр текущего состояния</t>
+    </r>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git add (имя файла)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - добавление конкретного файла</t>
+    </r>
+  </si>
+  <si>
+    <t>git commit</t>
+  </si>
+  <si>
+    <t>в текстовом файле, в верхней строке написать коментарий к Коммиту</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +290,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +323,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -250,6 +351,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -545,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:D18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -558,7 +664,17 @@
     <col min="3" max="3" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4">
+    <row r="1" spans="1:7">
+      <c r="B1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +683,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -576,7 +692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -585,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -599,7 +715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -613,7 +729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="10" customFormat="1" ht="27.6" customHeight="1">
+    <row r="8" spans="1:7" ht="20.399999999999999">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
@@ -621,8 +737,12 @@
       <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -631,43 +751,65 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -679,7 +821,7 @@
       </c>
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:2" ht="35.4" customHeight="1">
+    <row r="18" spans="1:2" ht="31.8">
       <c r="A18" s="3" t="s">
         <v>15</v>
       </c>

--- a/dz_1.xlsx
+++ b/dz_1.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>1. зареєструватися на гіті</t>
   </si>
@@ -219,6 +219,43 @@
   </si>
   <si>
     <t>в текстовом файле, в верхней строке написать коментарий к Коммиту</t>
+  </si>
+  <si>
+    <t>git commit -m 'тест комментария к Коммиту'</t>
+  </si>
+  <si>
+    <t>это если без блокнота</t>
+  </si>
+  <si>
+    <t>https://ohshitgit.com/ru</t>
+  </si>
+  <si>
+    <t>10 полезных команд Git</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>git log  (git log --graph)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - история всех изменений в ветке</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -323,7 +360,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -356,6 +393,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -651,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -665,6 +703,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="11" t="s">
         <v>21</v>
       </c>
@@ -792,48 +833,72 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" ht="31.8">
-      <c r="A18" s="3" t="s">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="31.8">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="2"/>
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
+    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="A1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/dz_1.xlsx
+++ b/dz_1.xlsx
@@ -7,8 +7,7 @@
     <workbookView xWindow="384" yWindow="132" windowWidth="6660" windowHeight="9024"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
@@ -36,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0">
+    <comment ref="B12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>1. зареєструватися на гіті</t>
   </si>
@@ -143,9 +142,6 @@
     <t>git branch (-d | -D) &lt;branchname&gt;</t>
   </si>
   <si>
-    <t>чтобы конкретные файлы не отслеживались Гитом, их имена надо добавить в файл .gitignore</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -255,6 +251,81 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - история всех изменений в ветке</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">чтобы конкретные файлы не отслеживались Гитом, их имена надо добавить в файл </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gitignore</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">git checkout -b feature </t>
+  </si>
+  <si>
+    <t>создать ветку feature и переключиться на неё</t>
+  </si>
+  <si>
+    <t>git commit -a</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>git push origin feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>git checkout main</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">на локальной машине переключиться на ветку </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
+    </r>
+  </si>
+  <si>
+    <t>git pull origin main</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">на локальной машине обновить состояние ветки </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>main</t>
     </r>
   </si>
 </sst>
@@ -262,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +406,21 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -360,7 +446,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -394,6 +480,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -689,31 +776,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="48.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
@@ -770,146 +858,188 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.399999999999999">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.399999999999999">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
+      <c r="D11" s="12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="G14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2" t="s">
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" ht="31.8">
-      <c r="A20" s="3" t="s">
+      <c r="B21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="31.8">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D7" r:id="rId1"/>
-    <hyperlink ref="G13" r:id="rId2"/>
+    <hyperlink ref="G14" r:id="rId2"/>
     <hyperlink ref="A1" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>